--- a/data/auth-data.xlsx
+++ b/data/auth-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
     <t>olga.berv@hotmail.com</t>
   </si>
   <si>
-    <t>Azerty12!</t>
-  </si>
-  <si>
-    <t>olga.berv@gmail.com</t>
-  </si>
-  <si>
     <t>12!Azerty12!</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>Password is required.</t>
+  </si>
+  <si>
+    <t>Tomax1488</t>
+  </si>
+  <si>
+    <t>wizik88@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -138,8 +138,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,17 +420,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -452,51 +452,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
